--- a/invoice.xlsx
+++ b/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semantic\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C02090-3471-4A2B-A185-0577E4B25DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB48309-EF6E-4DF2-926F-25DC94E8B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C8B6BA9-BB83-423F-82B1-F4724DE6DF39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,57 @@
   </si>
   <si>
     <t>Garden Bench - 99.99, Outdoor Dining Set - 399.99, Umbrella - 69.99</t>
+  </si>
+  <si>
+    <t>Inv1001</t>
+  </si>
+  <si>
+    <t>Inv1002</t>
+  </si>
+  <si>
+    <t>Inv1003</t>
+  </si>
+  <si>
+    <t>Inv1004</t>
+  </si>
+  <si>
+    <t>Inv1005</t>
+  </si>
+  <si>
+    <t>Inv1006</t>
+  </si>
+  <si>
+    <t>Inv1007</t>
+  </si>
+  <si>
+    <t>Inv1008</t>
+  </si>
+  <si>
+    <t>Inv1009</t>
+  </si>
+  <si>
+    <t>Inv1010</t>
+  </si>
+  <si>
+    <t>Inv1011</t>
+  </si>
+  <si>
+    <t>Inv1012</t>
+  </si>
+  <si>
+    <t>Inv1013</t>
+  </si>
+  <si>
+    <t>Inv1014</t>
+  </si>
+  <si>
+    <t>Inv1015</t>
+  </si>
+  <si>
+    <t>Inv1016</t>
+  </si>
+  <si>
+    <t>Inv1017</t>
   </si>
 </sst>
 </file>
@@ -516,7 +567,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,8 +604,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -579,8 +630,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1002</v>
+      <c r="A3" t="s">
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -605,8 +656,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
+      <c r="A4" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -631,8 +682,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1004</v>
+      <c r="A5" t="s">
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -657,8 +708,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1005</v>
+      <c r="A6" t="s">
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -683,8 +734,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1006</v>
+      <c r="A7" t="s">
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -709,8 +760,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1007</v>
+      <c r="A8" t="s">
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -735,8 +786,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1008</v>
+      <c r="A9" t="s">
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -761,8 +812,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1009</v>
+      <c r="A10" t="s">
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -787,8 +838,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1010</v>
+      <c r="A11" t="s">
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -813,8 +864,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1011</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -839,8 +890,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1012</v>
+      <c r="A13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -865,8 +916,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1013</v>
+      <c r="A14" t="s">
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -891,8 +942,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1014</v>
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -917,8 +968,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1015</v>
+      <c r="A16" t="s">
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -943,8 +994,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1016</v>
+      <c r="A17" t="s">
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -969,8 +1020,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1017</v>
+      <c r="A18" t="s">
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -992,6 +1043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B36D17D62BACA046811405C95B86D05D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="389766b8f8518a71dc401ac9e20fa669">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="62128f52-2b53-44ec-88c7-e002fa527156" xmlns:ns4="f963bc65-25c9-4a63-bd89-709d5259449a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ccc2fa3f1292ef9efe42b0b19ce9097" ns3:_="" ns4:_="">
     <xsd:import namespace="62128f52-2b53-44ec-88c7-e002fa527156"/>
@@ -1218,15 +1278,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1236,6 +1287,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E63EEB0-27E7-424A-ACD0-FE41F3FF5D32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A5EC43-A20B-4125-BCC0-73794B566F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,14 +1309,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E63EEB0-27E7-424A-ACD0-FE41F3FF5D32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
